--- a/data/Graphs/Self.xlsx
+++ b/data/Graphs/Self.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AH" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="AH_AS" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="AH_self_no" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="AS_self_no" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="CS_self_no" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="8">
   <si>
     <t xml:space="preserve">Model-1</t>
   </si>
@@ -52,9 +53,6 @@
   <si>
     <t xml:space="preserve">Shareera </t>
   </si>
-  <si>
-    <t xml:space="preserve">Loss</t>
-  </si>
 </sst>
 </file>
 
@@ -63,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,11 +103,6 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,11 +168,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -255,7 +244,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -570,11 +559,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="13277821"/>
-        <c:axId val="49858630"/>
+        <c:axId val="49810058"/>
+        <c:axId val="64624001"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13277821"/>
+        <c:axId val="49810058"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +619,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49858630"/>
+        <c:crossAx val="64624001"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49858630"/>
+        <c:axId val="64624001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +692,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13277821"/>
+        <c:crossAx val="49810058"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,7 +740,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1066,11 +1055,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="37347845"/>
-        <c:axId val="58117753"/>
+        <c:axId val="96594019"/>
+        <c:axId val="97752904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37347845"/>
+        <c:axId val="96594019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58117753"/>
+        <c:crossAx val="97752904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1134,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58117753"/>
+        <c:axId val="97752904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37347845"/>
+        <c:crossAx val="96594019"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1247,7 +1236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1562,11 +1551,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="9499545"/>
-        <c:axId val="50867061"/>
+        <c:axId val="95109928"/>
+        <c:axId val="33308643"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9499545"/>
+        <c:axId val="95109928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1611,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50867061"/>
+        <c:crossAx val="33308643"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1630,7 +1619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50867061"/>
+        <c:axId val="33308643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1684,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9499545"/>
+        <c:crossAx val="95109928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,7 +1732,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1817,6 +1806,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1907,6 +1897,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1997,6 +1988,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2054,11 +2046,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="84854778"/>
-        <c:axId val="82790913"/>
+        <c:axId val="1163873"/>
+        <c:axId val="45588565"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84854778"/>
+        <c:axId val="1163873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2084,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2114,7 +2106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82790913"/>
+        <c:crossAx val="45588565"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2122,7 +2114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82790913"/>
+        <c:axId val="45588565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2157,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2187,7 +2179,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84854778"/>
+        <c:crossAx val="1163873"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2309,6 +2301,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2399,6 +2392,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2489,6 +2483,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2546,11 +2541,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="60403183"/>
-        <c:axId val="92252516"/>
+        <c:axId val="3103277"/>
+        <c:axId val="36361583"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60403183"/>
+        <c:axId val="3103277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2579,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2606,7 +2601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92252516"/>
+        <c:crossAx val="36361583"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2614,7 +2609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92252516"/>
+        <c:axId val="36361583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2652,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2679,7 +2674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60403183"/>
+        <c:crossAx val="3103277"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2727,7 +2722,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2801,6 +2796,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2891,6 +2887,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2981,6 +2978,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3038,11 +3036,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="94229148"/>
-        <c:axId val="20627454"/>
+        <c:axId val="44896582"/>
+        <c:axId val="43077960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94229148"/>
+        <c:axId val="44896582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,7 +3074,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3098,7 +3096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20627454"/>
+        <c:crossAx val="43077960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3106,7 +3104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20627454"/>
+        <c:axId val="43077960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3147,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3171,7 +3169,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94229148"/>
+        <c:crossAx val="44896582"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3219,7 +3217,503 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Ashtanga Hridaya
+Non-Overlapping</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AH_self_no!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AH_self_no!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chikitsa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kalpa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nidana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shareera </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AH_self_no!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AH_self_no!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AH_self_no!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chikitsa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kalpa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nidana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shareera </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AH_self_no!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.538461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AH_self_no!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>AH_self_no!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chikitsa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kalpa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nidana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shareera </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AH_self_no!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="76827841"/>
+        <c:axId val="4538556"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="76827841"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Chapter Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4538556"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4538556"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76827841"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3264,7 +3758,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>AH_self_no!$D$1</c:f>
+              <c:f>AS_self_no!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3309,7 +3803,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>AH_self_no!$C$2:$C$5</c:f>
+              <c:f>AS_self_no!$C$2:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3329,21 +3823,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AH_self_no!$D$2:$D$5</c:f>
+              <c:f>AS_self_no!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4545</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6111</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53846</c:v>
+                  <c:v>0.5238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,7 +3848,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>AH_self_no!$E$1</c:f>
+              <c:f>AS_self_no!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3399,7 +3893,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>AH_self_no!$C$2:$C$5</c:f>
+              <c:f>AS_self_no!$C$2:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3419,21 +3913,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AH_self_no!$E$2:$E$5</c:f>
+              <c:f>AS_self_no!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45454</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.538461</c:v>
+                  <c:v>0.5238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3444,7 +3938,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>AH_self_no!$F$1</c:f>
+              <c:f>AS_self_no!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3489,7 +3983,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>AH_self_no!$C$2:$C$5</c:f>
+              <c:f>AS_self_no!$C$2:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3509,21 +4003,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AH_self_no!$F$2:$F$5</c:f>
+              <c:f>AS_self_no!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.48979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45454</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.444</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5384</c:v>
+                  <c:v>0.523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3531,11 +4025,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15589394"/>
-        <c:axId val="41288937"/>
+        <c:axId val="3082130"/>
+        <c:axId val="43675137"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15589394"/>
+        <c:axId val="3082130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,7 +4085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41288937"/>
+        <c:crossAx val="43675137"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3599,7 +4093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41288937"/>
+        <c:axId val="43675137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +4158,500 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15589394"/>
+        <c:crossAx val="3082130"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Charaka Samhitha
+Non-Overlapping</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CS_self_no!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CS_self_no!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chikitsa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kalpa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nidana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shareera </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CS_self_no!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CS_self_no!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CS_self_no!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chikitsa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kalpa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nidana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shareera </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CS_self_no!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CS_self_no!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>CS_self_no!$C$2:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Chikitsa</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kalpa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nidana</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Shareera </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CS_self_no!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="87844779"/>
+        <c:axId val="21080072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="87844779"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Chapter Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="21080072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="21080072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87844779"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3723,9 +4710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
+      <xdr:colOff>650160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3733,8 +4720,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5473080" y="1795320"/>
-        <a:ext cx="5776920" cy="3238920"/>
+        <a:off x="5480640" y="1795320"/>
+        <a:ext cx="5785560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3758,9 +4745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>591840</xdr:colOff>
+      <xdr:colOff>591480</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3768,8 +4755,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5406480" y="1604160"/>
-        <a:ext cx="5768280" cy="3239280"/>
+        <a:off x="5414040" y="1604160"/>
+        <a:ext cx="5776920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3793,9 +4780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>472680</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3803,8 +4790,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6101640" y="1690200"/>
-        <a:ext cx="5767920" cy="3239280"/>
+        <a:off x="6110640" y="1690200"/>
+        <a:ext cx="5776560" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3828,9 +4815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>790560</xdr:colOff>
+      <xdr:colOff>790200</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3838,8 +4825,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5597280" y="1575720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="5604840" y="1575720"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3863,9 +4850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3873,8 +4860,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6449760" y="2350080"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6458760" y="2350080"/>
+        <a:ext cx="5769360" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3898,9 +4885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>443880</xdr:colOff>
+      <xdr:colOff>443520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3908,8 +4895,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6876360" y="2235240"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6886440" y="2235240"/>
+        <a:ext cx="5768280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3933,9 +4920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>86400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3943,7 +4930,77 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6519240" y="1719000"/>
+        <a:off x="6529320" y="1719000"/>
+        <a:ext cx="5768280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4920840" y="36000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4913280" y="36000"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3968,7 +5025,7 @@
       <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -4074,7 +5131,7 @@
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
@@ -4180,7 +5237,7 @@
       <selection pane="topLeft" activeCell="S32" activeCellId="0" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
@@ -4286,86 +5343,86 @@
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.867483</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.87149</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.3545657</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.98954</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.79965</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.9758</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.98387</v>
       </c>
     </row>
@@ -4392,7 +5449,7 @@
       <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
@@ -4498,7 +5555,7 @@
       <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
@@ -4601,10 +5658,10 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R13" activeCellId="0" sqref="R13"/>
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="3"/>
@@ -4704,162 +5761,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>0.469</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.48979</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>0.48979</v>
       </c>
+      <c r="F2" s="4" t="n">
+        <v>0.48979</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0.6948</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.69406</v>
+        <v>0.4545</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.86987</v>
+        <v>0.45454</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.45454</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.4545</v>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.45454</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.45454</v>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.6926</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06732</v>
+        <v>0.5238</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.70425</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.69156</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.7593</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>7.71247</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="n">
         <v>0.5238</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>0.5238</v>
-      </c>
-      <c r="E8" s="4" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.523</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.69191</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.7272</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.69217</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4867,5 +5858,112 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.57142</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.42857</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.6666</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>